--- a/Dump/CrossOver.xlsx
+++ b/Dump/CrossOver.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Cross" sheetId="1" r:id="rId1"/>
-    <sheet name="Mutate" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Mutate" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="63">
   <si>
     <t>mID:    0</t>
   </si>
@@ -205,6 +206,15 @@
   </si>
   <si>
     <t xml:space="preserve">mutated: 1 of: &lt;3&gt; </t>
+  </si>
+  <si>
+    <t>max err</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>div 2</t>
   </si>
 </sst>
 </file>
@@ -274,13 +284,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -598,18 +610,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M31"/>
+  <dimension ref="C4:M28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -624,13 +637,13 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J4" s="1"/>
@@ -654,13 +667,13 @@
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="6" t="s">
         <v>31</v>
       </c>
       <c r="J5" s="1"/>
@@ -684,13 +697,13 @@
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1"/>
@@ -714,13 +727,13 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="1"/>
@@ -745,13 +758,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K8" t="s">
@@ -775,13 +788,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="s">
@@ -805,13 +818,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K10" t="s">
@@ -835,13 +848,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="7" t="s">
         <v>4</v>
       </c>
       <c r="K11" t="s">
@@ -865,13 +878,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K12" t="s">
@@ -895,13 +908,13 @@
         <v>25</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="5" t="s">
         <v>25</v>
       </c>
       <c r="K13" t="s">
@@ -925,13 +938,13 @@
         <v>29</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="5" t="s">
         <v>29</v>
       </c>
       <c r="K14" t="s">
@@ -944,333 +957,333 @@
         <v>29</v>
       </c>
     </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" t="s">
+        <v>48</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>4</v>
+      <c r="G21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="K21" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L21" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" t="s">
-        <v>48</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2" t="s">
+      <c r="I24" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" t="s">
-        <v>9</v>
-      </c>
-      <c r="L24" t="s">
-        <v>50</v>
-      </c>
-      <c r="M24" t="s">
+      <c r="M24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>4</v>
+      <c r="G25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I30" s="3" t="s">
+      <c r="G28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1282,9 +1295,727 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:O30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>0.25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3">
+        <f>D2</f>
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <f>SUM(O6:O30)</f>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>78</v>
+      </c>
+      <c r="E6">
+        <f>D6*$D$3</f>
+        <v>19.5</v>
+      </c>
+      <c r="F6">
+        <f>E6</f>
+        <v>19.5</v>
+      </c>
+      <c r="H6">
+        <f>(1/(F6+1))*100</f>
+        <v>4.8780487804878048</v>
+      </c>
+      <c r="J6">
+        <f>H6/$H$3</f>
+        <v>6.2539086929330828E-2</v>
+      </c>
+      <c r="L6">
+        <f>J6*100</f>
+        <v>6.2539086929330825</v>
+      </c>
+      <c r="O6">
+        <f>ROUNDUP(L6,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E32" si="0">D7*$D$3</f>
+        <v>18.75</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F32" si="1">E7</f>
+        <v>18.75</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H16" si="2">(1/(F7+1))*100</f>
+        <v>5.0632911392405067</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J16" si="3">H7/$H$3</f>
+        <v>6.4913988964621874E-2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L16" si="4">J7*100</f>
+        <v>6.4913988964621874</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O24" si="5">ROUNDUP(L7,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>65</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>16.25</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>16.25</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>5.7971014492753623</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>7.4321813452248239E-2</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>7.4321813452248238</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>13.75</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>13.75</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>6.7796610169491522</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>8.6918730986527595E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>8.6918730986527599</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>11.25</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>8.1632653061224492</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.10465724751439037</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>10.465724751439037</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.75</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>10.256410256410255</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0.13149243918474687</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>13.149243918474687</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>6.25</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>13.793103448275861</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0.17683465959328026</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>17.683465959328025</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>21.052631578947366</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0.26990553306342779</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>26.990553306342779</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>0.39447731755424065</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>39.447731755424066</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>0.42735042735042728</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>42.735042735042725</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>0.46620046620046623</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>46.620046620046622</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H23" si="6">(1/(F17+1))*100</f>
+        <v>40</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J23" si="7">H17/$H$3</f>
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L23" si="8">J17*100</f>
+        <v>51.282051282051277</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="7"/>
+        <v>0.56980056980056981</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="8"/>
+        <v>56.980056980056979</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="7"/>
+        <v>0.64102564102564108</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>64.102564102564102</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="7"/>
+        <v>0.73260073260073255</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>73.260073260073256</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="7"/>
+        <v>0.85470085470085455</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>85.470085470085451</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ref="H22:H27" si="9">(1/(F22+1))*100</f>
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ref="J22:J27" si="10">H22/$H$3</f>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ref="L22:L27" si="11">J22*100</f>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="10"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="11"/>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="10"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="11"/>
+        <v>128.2051282051282</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="5"/>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="10"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="11"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="10"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="11"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="10"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="11"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H32" si="12">(1/(F28+1))*100</f>
+        <v>100</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J32" si="13">H28/$H$3</f>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L28">
+        <f t="shared" ref="L28:L32" si="14">J28*100</f>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="13"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="14"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="13"/>
+        <v>1.2820512820512822</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="14"/>
+        <v>128.2051282051282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1301,12 +2032,12 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
